--- a/Input/Leagues 22-to-21.xlsx
+++ b/Input/Leagues 22-to-21.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\Coding\GitHub Repos\eFootball-Database-Scrapper\Teams &amp; Competitions\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\OneDrive\Documents\GitHub\PES-Master-CompsAndTeam-Grabber\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F41DCD-2E94-4635-97AC-ACE7CF2E2E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB8EEF4-30B6-4DF8-A8E1-DDEBB138EB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="20460" windowHeight="10770" xr2:uid="{269B7300-8F4F-443E-A8C4-E0FEB8C2F215}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{269B7300-8F4F-443E-A8C4-E0FEB8C2F215}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Leagues_22_to_21" localSheetId="0">Sheet1!$A$1:$H$32</definedName>
+    <definedName name="Leagues_22_to_21" localSheetId="0">Sheet1!$A$1:$H$30</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>name21</t>
   </si>
@@ -138,18 +137,12 @@
     <t>Ligue 2 BKT</t>
   </si>
   <si>
-    <t>J1 League</t>
-  </si>
-  <si>
     <t>English 2nd Division</t>
   </si>
   <si>
     <t>Championship</t>
   </si>
   <si>
-    <t>J2 League</t>
-  </si>
-  <si>
     <t>English League</t>
   </si>
   <si>
@@ -210,9 +203,6 @@
     <t>Other Teams (Latin America)</t>
   </si>
   <si>
-    <t>PLA League</t>
-  </si>
-  <si>
     <t>MLS</t>
   </si>
   <si>
@@ -241,9 +231,6 @@
   </si>
   <si>
     <t>La Liga</t>
-  </si>
-  <si>
-    <t>Spor Toto Sâ”œâ•per Lig</t>
   </si>
   <si>
     <t>Superliga Quilmes Clâ”œÄªsica</t>
@@ -632,29 +619,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8B23DE-8550-40A3-81B8-DC7A34E7DE9E}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30:D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -668,22 +657,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>68</v>
-      </c>
-      <c r="G1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" t="s">
-        <v>72</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
@@ -692,7 +681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -705,24 +694,6 @@
       <c r="D2">
         <v>549</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>635</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2">
-        <v>269</v>
-      </c>
-      <c r="I2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2">
-        <v>476</v>
-      </c>
       <c r="K2" t="s">
         <v>7</v>
       </c>
@@ -730,7 +701,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -743,12 +714,6 @@
       <c r="D3">
         <v>101</v>
       </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3">
-        <v>603</v>
-      </c>
       <c r="K3" t="s">
         <v>10</v>
       </c>
@@ -756,7 +721,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -776,7 +741,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -796,7 +761,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -816,7 +781,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -836,7 +801,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -850,344 +815,370 @@
         <v>343</v>
       </c>
       <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>27</v>
-      </c>
-      <c r="L8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
       </c>
       <c r="B9">
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>337</v>
       </c>
-      <c r="K9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>113</v>
       </c>
-      <c r="K10" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="D12">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
       <c r="B13">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
       </c>
       <c r="D13">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
       <c r="B14">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
       </c>
       <c r="D14">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
       </c>
       <c r="D15">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>42</v>
       </c>
-      <c r="D16">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>43</v>
       </c>
-      <c r="B17">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="B18">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
         <v>44</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>45</v>
-      </c>
-      <c r="B19">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>46</v>
       </c>
       <c r="B20">
         <v>34</v>
       </c>
       <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
       <c r="B21">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="C21" t="s">
         <v>47</v>
       </c>
       <c r="D21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>48</v>
       </c>
       <c r="B22">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>50</v>
       </c>
       <c r="B23">
-        <v>212</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D24">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
         <v>54</v>
       </c>
       <c r="D25">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
         <v>56</v>
       </c>
       <c r="D26">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>57</v>
       </c>
       <c r="B27">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29">
+        <v>139</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>131</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
         <v>69</v>
       </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28">
-        <v>67</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30">
-        <v>22</v>
-      </c>
-      <c r="C30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31">
-        <v>139</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31">
-        <v>585</v>
+      <c r="D35">
+        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Leagues 22-to-21.xlsx
+++ b/Input/Leagues 22-to-21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\OneDrive\Documents\GitHub\PES-Master-CompsAndTeam-Grabber\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB8EEF4-30B6-4DF8-A8E1-DDEBB138EB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29871F72-99EC-4726-8874-A69B4848C446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{269B7300-8F4F-443E-A8C4-E0FEB8C2F215}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>name21</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>Campeonato Brasileiro Série B</t>
-  </si>
-  <si>
-    <t>PEU League</t>
   </si>
   <si>
     <t>Colombian League</t>
@@ -622,9 +619,9 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30:D35"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -657,22 +654,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>65</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>67</v>
-      </c>
-      <c r="J1" t="s">
-        <v>68</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
@@ -775,27 +772,27 @@
         <v>588</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="L6">
-        <v>39</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>576</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L7">
         <v>114</v>
@@ -803,19 +800,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>343</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L8">
         <v>41</v>
@@ -823,13 +820,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>337</v>
@@ -837,13 +834,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>113</v>
@@ -851,13 +848,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>125</v>
@@ -865,13 +862,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>566</v>
@@ -879,13 +876,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13">
         <v>518</v>
@@ -893,13 +890,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <v>128</v>
@@ -907,13 +904,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15">
         <v>122</v>
@@ -921,13 +918,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -935,13 +932,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17">
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -949,13 +946,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -963,13 +960,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19">
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -977,13 +974,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -991,13 +988,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <v>204</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21">
         <v>204</v>
@@ -1005,13 +1002,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>212</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22">
         <v>212</v>
@@ -1019,13 +1016,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23">
         <v>473</v>
@@ -1033,13 +1030,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24">
         <v>116</v>
@@ -1047,13 +1044,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25">
         <v>346</v>
@@ -1061,13 +1058,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26">
         <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26">
         <v>340</v>
@@ -1075,13 +1072,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27">
         <v>119</v>
@@ -1089,13 +1086,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28">
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28">
         <v>152</v>
@@ -1103,13 +1100,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29">
         <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29">
         <v>585</v>
@@ -1142,7 +1139,7 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32">
         <v>603</v>
@@ -1153,7 +1150,7 @@
         <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33">
         <v>266</v>
@@ -1172,10 +1169,10 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D35">
         <v>476</v>

--- a/Input/Leagues 22-to-21.xlsx
+++ b/Input/Leagues 22-to-21.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\OneDrive\Documents\GitHub\PES-Master-CompsAndTeam-Grabber\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nady\Documents\GitHub\PES-Master-CompsAndTeam-Grabber\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29871F72-99EC-4726-8874-A69B4848C446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F927A543-4E6D-4606-9027-1244D3A9C622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{269B7300-8F4F-443E-A8C4-E0FEB8C2F215}"/>
   </bookViews>
@@ -619,9 +619,9 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
         <v>48</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>

--- a/Input/Leagues 22-to-21.xlsx
+++ b/Input/Leagues 22-to-21.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nady\Documents\GitHub\PES-Master-CompsAndTeam-Grabber\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F927A543-4E6D-4606-9027-1244D3A9C622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2284D44D-1F3B-48E9-A7DF-F27239E23C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{269B7300-8F4F-443E-A8C4-E0FEB8C2F215}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t>name21</t>
   </si>
@@ -104,18 +104,12 @@
     <t>Liga BBVA MX</t>
   </si>
   <si>
-    <t>Campeonato Brasileiro Sâ”œÂ®rie A</t>
-  </si>
-  <si>
     <t>Campeonato Brasileiro Série A</t>
   </si>
   <si>
     <t>Other Teams (Asia)</t>
   </si>
   <si>
-    <t>Campeonato Brasileiro Sâ”œÂ®rie B</t>
-  </si>
-  <si>
     <t>Campeonato Brasileiro Série B</t>
   </si>
   <si>
@@ -261,6 +255,9 @@
   </si>
   <si>
     <t>Spor Toto Süper Lig</t>
+  </si>
+  <si>
+    <t>K League</t>
   </si>
 </sst>
 </file>
@@ -616,12 +613,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8B23DE-8550-40A3-81B8-DC7A34E7DE9E}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -654,22 +651,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>64</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>65</v>
-      </c>
-      <c r="I1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" t="s">
-        <v>67</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
@@ -692,10 +689,10 @@
         <v>549</v>
       </c>
       <c r="K2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="L2">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -746,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>149</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5">
         <v>206</v>
@@ -760,73 +757,55 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>588</v>
       </c>
-      <c r="K6" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6">
-        <v>119</v>
-      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>576</v>
       </c>
-      <c r="K7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7">
-        <v>114</v>
-      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>343</v>
       </c>
-      <c r="K8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8">
-        <v>41</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>337</v>
@@ -834,13 +813,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>113</v>
@@ -848,13 +827,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>125</v>
@@ -862,13 +841,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>566</v>
@@ -876,13 +855,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>518</v>
@@ -890,13 +869,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14">
         <v>128</v>
@@ -904,13 +883,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>122</v>
@@ -918,13 +897,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -932,13 +911,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -946,13 +925,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -960,13 +939,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -974,13 +953,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -988,13 +967,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>204</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21">
         <v>204</v>
@@ -1002,13 +981,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>212</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22">
         <v>212</v>
@@ -1016,13 +995,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23">
         <v>473</v>
@@ -1030,13 +1009,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24">
         <v>116</v>
@@ -1044,13 +1023,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25">
         <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25">
         <v>346</v>
@@ -1058,13 +1037,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26">
         <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26">
         <v>340</v>
@@ -1072,13 +1051,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D27">
         <v>119</v>
@@ -1086,13 +1065,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B28">
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28">
         <v>152</v>
@@ -1100,13 +1079,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B29">
         <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D29">
         <v>585</v>
@@ -1139,24 +1118,27 @@
         <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D32">
         <v>603</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
       <c r="B33">
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D33">
         <v>266</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>85</v>
       </c>
@@ -1167,15 +1149,32 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
       <c r="B35">
         <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D35">
         <v>476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>125</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36">
+        <v>694</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Leagues 22-to-21.xlsx
+++ b/Input/Leagues 22-to-21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\Coding\GitHub Repos\eFootball-Database-Scrapper\Teams &amp; Competitions\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nady\Documents\GitHub\PES-Master-CompsAndTeam-Grabber\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F41DCD-2E94-4635-97AC-ACE7CF2E2E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EC48B3-2646-49E5-9A93-C9C8085D7704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="20460" windowHeight="10770" xr2:uid="{269B7300-8F4F-443E-A8C4-E0FEB8C2F215}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{269B7300-8F4F-443E-A8C4-E0FEB8C2F215}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
   <si>
     <t>name21</t>
   </si>
@@ -78,9 +78,6 @@
     <t>3F Superliga</t>
   </si>
   <si>
-    <t>Chinese Super League</t>
-  </si>
-  <si>
     <t>USL Championship</t>
   </si>
   <si>
@@ -277,6 +274,12 @@
   </si>
   <si>
     <t>Spor Toto Süper Lig</t>
+  </si>
+  <si>
+    <t>Other Teams (North &amp; Central America)</t>
+  </si>
+  <si>
+    <t>K League</t>
   </si>
 </sst>
 </file>
@@ -632,29 +635,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8B23DE-8550-40A3-81B8-DC7A34E7DE9E}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -668,22 +671,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>69</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>70</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>71</v>
-      </c>
-      <c r="J1" t="s">
-        <v>72</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
@@ -692,7 +695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -706,488 +709,499 @@
         <v>549</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>635</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>269</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J2">
         <v>476</v>
       </c>
       <c r="K2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3">
         <v>603</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L3">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>287</v>
       </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4">
+        <v>214</v>
+      </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L4">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>149</v>
       </c>
       <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>18</v>
-      </c>
-      <c r="L5">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
       </c>
       <c r="B6">
         <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>588</v>
       </c>
       <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>21</v>
-      </c>
-      <c r="L6">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
       </c>
       <c r="B7">
         <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>576</v>
       </c>
       <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>24</v>
-      </c>
-      <c r="L7">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
       </c>
       <c r="B8">
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>343</v>
       </c>
       <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>27</v>
-      </c>
-      <c r="L8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
       </c>
       <c r="B9">
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>337</v>
       </c>
       <c r="K9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>30</v>
-      </c>
-      <c r="L9">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>31</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>113</v>
       </c>
-      <c r="K10" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13">
         <v>566</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <v>518</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>204</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22">
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23">
         <v>212</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23">
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24">
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24">
         <v>465</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25">
         <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25">
         <v>473</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27">
         <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27">
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28">
         <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28">
         <v>340</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29">
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29">
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30">
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31">
         <v>139</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31">
         <v>585</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>694</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
